--- a/biology/Zoologie/Etmopterus_perryi/Etmopterus_perryi.xlsx
+++ b/biology/Zoologie/Etmopterus_perryi/Etmopterus_perryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Etmopterus perryi ou Sagre Elfe est une espèce de requins de la famille des Etmopteridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce bathy-benthique se rencontre dans la mer des Caraïbes au large de la Colombie et du Venezuela.
 </t>
@@ -542,9 +556,11 @@
           <t>L'un des 3 plus petits requins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'une des trois espèces de requins les plus petites[1] (la taille adulte est estimée à 17 cm de long).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'une des trois espèces de requins les plus petites (la taille adulte est estimée à 17 cm de long).
 Les deux autres variétés de requin aussi petits sont le requin nain et le requin chat pygmée.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Etmopterus perryi est ovovivipare. À leur naissance, les requins mesurent environ 6 cm[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Etmopterus perryi est ovovivipare. À leur naissance, les requins mesurent environ 6 cm. 
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Springer &amp; Burgess, 1985 : Two new dwarf dogsharks (Etmopterus, Squalidae) found off the Caribbean coast of Colombia. Copeia, vol. 1985, n. 3, p. 584-591.</t>
         </is>
